--- a/it_api/wwwroot/data/info/BANG LUONG T08.2024.xlsx
+++ b/it_api/wwwroot/data/info/BANG LUONG T08.2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\data\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9802F7-92E3-4D67-B3B4-604E18852DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C01410-A363-44EA-A1DB-1A9BF1A497A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="607">
   <si>
     <t>CÔNG TY CỔ PHẦN ASTA HEALTHCARE USA</t>
   </si>
@@ -2201,6 +2201,72 @@
   </si>
   <si>
     <t>PVT120785</t>
+  </si>
+  <si>
+    <t>TLH290879</t>
+  </si>
+  <si>
+    <t>MQT170969</t>
+  </si>
+  <si>
+    <t>LNV200991</t>
+  </si>
+  <si>
+    <t>BTT020897</t>
+  </si>
+  <si>
+    <t>LTT100388</t>
+  </si>
+  <si>
+    <t>NHH240998</t>
+  </si>
+  <si>
+    <t>PTT031097</t>
+  </si>
+  <si>
+    <t>NMH200298</t>
+  </si>
+  <si>
+    <t>PPT080402</t>
+  </si>
+  <si>
+    <t>PTM101101</t>
+  </si>
+  <si>
+    <t>DVT210183</t>
+  </si>
+  <si>
+    <t>PTV131101</t>
+  </si>
+  <si>
+    <t>LCH150301</t>
+  </si>
+  <si>
+    <t>TQN131001</t>
+  </si>
+  <si>
+    <t>TMT180202</t>
+  </si>
+  <si>
+    <t>NTT121099</t>
+  </si>
+  <si>
+    <t>NMK170962</t>
+  </si>
+  <si>
+    <t>TNT080175</t>
+  </si>
+  <si>
+    <t>TPH270680</t>
+  </si>
+  <si>
+    <t>TTT160595</t>
+  </si>
+  <si>
+    <t>LVT070891</t>
+  </si>
+  <si>
+    <t>VTH170191</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2285,7 @@
     <numFmt numFmtId="171" formatCode="#,##0.00000000000"/>
     <numFmt numFmtId="172" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2468,6 +2534,14 @@
       <color indexed="81"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3291,14 +3365,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3813,20 +3888,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3834,19 +3910,16 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,28 +3949,43 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3924,17 +4012,95 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="5" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3984,54 +4150,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4040,15 +4158,6 @@
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4059,49 +4168,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="5" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="5" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4111,9 +4187,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Mau 01aTBH va 3aTBH 1643 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
@@ -6099,10 +6176,10 @@
   <dimension ref="A1:AJ180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="O151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6124,7 +6201,7 @@
     <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" style="1" customWidth="1"/>
@@ -6196,16 +6273,16 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="215" t="s">
+      <c r="O5" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="173"/>
@@ -6233,16 +6310,16 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="216" t="s">
+      <c r="O6" s="196" t="s">
         <v>431</v>
       </c>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
-      <c r="S6" s="216"/>
-      <c r="T6" s="216"/>
-      <c r="U6" s="216"/>
-      <c r="V6" s="216"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="174"/>
@@ -6265,8 +6342,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="12"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -6394,68 +6471,68 @@
       <c r="AJ8" s="165"/>
     </row>
     <row r="9" spans="1:36" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="218" t="s">
+      <c r="G9" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="218" t="s">
+      <c r="H9" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="204" t="s">
+      <c r="I9" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="199" t="s">
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="Q9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="R9" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="219" t="s">
+      <c r="S9" s="204" t="s">
         <v>433</v>
       </c>
-      <c r="T9" s="205" t="s">
+      <c r="T9" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="202" t="s">
+      <c r="U9" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="203"/>
-      <c r="W9" s="199" t="s">
+      <c r="V9" s="220"/>
+      <c r="W9" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="204" t="s">
+      <c r="X9" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="199" t="s">
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="200" t="s">
         <v>21</v>
       </c>
       <c r="AC9" s="212" t="s">
@@ -6464,16 +6541,16 @@
       <c r="AD9" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="AE9" s="195" t="s">
+      <c r="AE9" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="197" t="s">
+      <c r="AF9" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="AG9" s="199" t="s">
+      <c r="AG9" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="201" t="s">
+      <c r="AH9" s="218" t="s">
         <v>27</v>
       </c>
       <c r="AI9" s="210" t="s">
@@ -6484,14 +6561,14 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="195"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
       <c r="I10" s="16" t="s">
         <v>30</v>
       </c>
@@ -6513,18 +6590,18 @@
       <c r="O10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="205"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="221"/>
       <c r="U10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="V10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="196"/>
+      <c r="W10" s="202"/>
       <c r="X10" s="18" t="s">
         <v>37</v>
       </c>
@@ -6537,13 +6614,13 @@
       <c r="AA10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="196"/>
+      <c r="AB10" s="202"/>
       <c r="AC10" s="213"/>
       <c r="AD10" s="214"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="200"/>
-      <c r="AH10" s="201"/>
+      <c r="AE10" s="202"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="218"/>
       <c r="AI10" s="211"/>
       <c r="AJ10" s="206"/>
     </row>
@@ -7009,7 +7086,9 @@
       <c r="B15" s="172" t="s">
         <v>394</v>
       </c>
-      <c r="C15" s="191"/>
+      <c r="C15" s="194" t="s">
+        <v>586</v>
+      </c>
       <c r="D15" s="25" t="s">
         <v>395</v>
       </c>
@@ -14628,7 +14707,9 @@
       <c r="B86" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="C86" s="191"/>
+      <c r="C86" s="191" t="s">
+        <v>585</v>
+      </c>
       <c r="D86" s="25" t="s">
         <v>413</v>
       </c>
@@ -15150,7 +15231,9 @@
       <c r="B91" s="172" t="s">
         <v>401</v>
       </c>
-      <c r="C91" s="191"/>
+      <c r="C91" s="191" t="s">
+        <v>587</v>
+      </c>
       <c r="D91" s="42" t="s">
         <v>345</v>
       </c>
@@ -15247,7 +15330,9 @@
       <c r="B92" s="172" t="s">
         <v>402</v>
       </c>
-      <c r="C92" s="191"/>
+      <c r="C92" s="191" t="s">
+        <v>588</v>
+      </c>
       <c r="D92" s="42" t="s">
         <v>345</v>
       </c>
@@ -15344,7 +15429,9 @@
       <c r="B93" s="172" t="s">
         <v>403</v>
       </c>
-      <c r="C93" s="191"/>
+      <c r="C93" s="191" t="s">
+        <v>589</v>
+      </c>
       <c r="D93" s="42" t="s">
         <v>345</v>
       </c>
@@ -15441,7 +15528,9 @@
       <c r="B94" s="172" t="s">
         <v>404</v>
       </c>
-      <c r="C94" s="191"/>
+      <c r="C94" s="191" t="s">
+        <v>590</v>
+      </c>
       <c r="D94" s="42" t="s">
         <v>345</v>
       </c>
@@ -15538,7 +15627,9 @@
       <c r="B95" s="172" t="s">
         <v>379</v>
       </c>
-      <c r="C95" s="191"/>
+      <c r="C95" s="191" t="s">
+        <v>591</v>
+      </c>
       <c r="D95" s="42" t="s">
         <v>345</v>
       </c>
@@ -19281,7 +19372,9 @@
       <c r="B130" s="172" t="s">
         <v>442</v>
       </c>
-      <c r="C130" s="191"/>
+      <c r="C130" s="191" t="s">
+        <v>592</v>
+      </c>
       <c r="D130" s="42" t="s">
         <v>51</v>
       </c>
@@ -19367,7 +19460,9 @@
       <c r="B131" s="172" t="s">
         <v>396</v>
       </c>
-      <c r="C131" s="191"/>
+      <c r="C131" s="191" t="s">
+        <v>593</v>
+      </c>
       <c r="D131" s="25" t="s">
         <v>397</v>
       </c>
@@ -19629,7 +19724,9 @@
       <c r="B134" s="172" t="s">
         <v>435</v>
       </c>
-      <c r="C134" s="191"/>
+      <c r="C134" s="191" t="s">
+        <v>594</v>
+      </c>
       <c r="D134" s="42" t="s">
         <v>70</v>
       </c>
@@ -19715,7 +19812,9 @@
       <c r="B135" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="C135" s="191"/>
+      <c r="C135" s="191" t="s">
+        <v>595</v>
+      </c>
       <c r="D135" s="42" t="s">
         <v>448</v>
       </c>
@@ -20675,7 +20774,9 @@
       <c r="B146" s="172" t="s">
         <v>436</v>
       </c>
-      <c r="C146" s="191"/>
+      <c r="C146" s="191" t="s">
+        <v>596</v>
+      </c>
       <c r="D146" s="42" t="s">
         <v>87</v>
       </c>
@@ -20761,7 +20862,9 @@
       <c r="B147" s="172" t="s">
         <v>437</v>
       </c>
-      <c r="C147" s="191"/>
+      <c r="C147" s="191" t="s">
+        <v>597</v>
+      </c>
       <c r="D147" s="42" t="s">
         <v>87</v>
       </c>
@@ -20847,7 +20950,9 @@
       <c r="B148" s="172" t="s">
         <v>438</v>
       </c>
-      <c r="C148" s="191"/>
+      <c r="C148" s="191" t="s">
+        <v>598</v>
+      </c>
       <c r="D148" s="42" t="s">
         <v>87</v>
       </c>
@@ -20933,7 +21038,9 @@
       <c r="B149" s="172" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="191"/>
+      <c r="C149" s="191" t="s">
+        <v>599</v>
+      </c>
       <c r="D149" s="42" t="s">
         <v>87</v>
       </c>
@@ -21019,7 +21126,9 @@
       <c r="B150" s="172" t="s">
         <v>440</v>
       </c>
-      <c r="C150" s="191"/>
+      <c r="C150" s="191" t="s">
+        <v>600</v>
+      </c>
       <c r="D150" s="42" t="s">
         <v>87</v>
       </c>
@@ -21285,7 +21394,7 @@
       <c r="F153" s="40"/>
       <c r="G153" s="41">
         <f>SUBTOTAL(9,G154:G165)</f>
-        <v>136822222.22222221</v>
+        <v>136822222</v>
       </c>
       <c r="H153" s="41">
         <f t="shared" ref="H153:AI153" si="164">SUBTOTAL(9,H154:H165)</f>
@@ -21408,7 +21517,9 @@
       <c r="B154" s="172" t="s">
         <v>239</v>
       </c>
-      <c r="C154" s="191"/>
+      <c r="C154" s="194" t="s">
+        <v>605</v>
+      </c>
       <c r="D154" s="42" t="s">
         <v>240</v>
       </c>
@@ -21493,7 +21604,9 @@
       <c r="B155" s="172" t="s">
         <v>242</v>
       </c>
-      <c r="C155" s="191"/>
+      <c r="C155" s="191" t="s">
+        <v>601</v>
+      </c>
       <c r="D155" s="42" t="s">
         <v>342</v>
       </c>
@@ -21502,8 +21615,7 @@
         <v>24</v>
       </c>
       <c r="G155" s="28">
-        <f>20000000/0.9</f>
-        <v>22222222.22222222</v>
+        <v>22222222</v>
       </c>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
@@ -21897,7 +22009,9 @@
       <c r="B160" s="172" t="s">
         <v>367</v>
       </c>
-      <c r="C160" s="191"/>
+      <c r="C160" s="191" t="s">
+        <v>602</v>
+      </c>
       <c r="D160" s="42" t="s">
         <v>51</v>
       </c>
@@ -21976,7 +22090,9 @@
       <c r="B161" s="172" t="s">
         <v>398</v>
       </c>
-      <c r="C161" s="191"/>
+      <c r="C161" s="191" t="s">
+        <v>603</v>
+      </c>
       <c r="D161" s="42" t="s">
         <v>399</v>
       </c>
@@ -22128,7 +22244,9 @@
       <c r="B163" s="172" t="s">
         <v>370</v>
       </c>
-      <c r="C163" s="191"/>
+      <c r="C163" s="194" t="s">
+        <v>606</v>
+      </c>
       <c r="D163" s="42" t="s">
         <v>249</v>
       </c>
@@ -22210,7 +22328,9 @@
       <c r="B164" s="172" t="s">
         <v>441</v>
       </c>
-      <c r="C164" s="191"/>
+      <c r="C164" s="191" t="s">
+        <v>604</v>
+      </c>
       <c r="D164" s="42" t="s">
         <v>249</v>
       </c>
@@ -22369,7 +22489,7 @@
       <c r="F166" s="55"/>
       <c r="G166" s="56">
         <f t="shared" ref="G166:AH166" si="174">+SUBTOTAL(9,G12:G165)</f>
-        <v>708322222.22222221</v>
+        <v>708322222</v>
       </c>
       <c r="H166" s="56">
         <f t="shared" si="174"/>
@@ -22575,29 +22695,29 @@
       <c r="AJ169" s="168"/>
     </row>
     <row r="170" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F170" s="194" t="s">
+      <c r="F170" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="G170" s="194"/>
-      <c r="H170" s="194"/>
+      <c r="G170" s="215"/>
+      <c r="H170" s="215"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="L170" s="72"/>
       <c r="R170" s="64"/>
-      <c r="U170" s="194" t="s">
+      <c r="U170" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="V170" s="194"/>
-      <c r="W170" s="194"/>
+      <c r="V170" s="215"/>
+      <c r="W170" s="215"/>
       <c r="AA170" s="64"/>
       <c r="AC170" s="61"/>
       <c r="AD170" s="61"/>
-      <c r="AE170" s="194" t="s">
+      <c r="AE170" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="AF170" s="194"/>
-      <c r="AG170" s="194"/>
-      <c r="AH170" s="194"/>
+      <c r="AF170" s="215"/>
+      <c r="AG170" s="215"/>
+      <c r="AH170" s="215"/>
     </row>
     <row r="171" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F171" s="71"/>
@@ -22794,6 +22914,26 @@
   </sheetData>
   <autoFilter ref="A11:AJ166" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="U170:W170"/>
+    <mergeCell ref="AE170:AH170"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="U169:W169"/>
+    <mergeCell ref="AE169:AH169"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="O5:V5"/>
     <mergeCell ref="O6:V6"/>
     <mergeCell ref="I7:J7"/>
@@ -22809,26 +22949,6 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="U169:W169"/>
-    <mergeCell ref="AE169:AH169"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="U170:W170"/>
-    <mergeCell ref="AE170:AH170"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C104" r:id="rId1" display="https://info.astahealthcare.com/personnel" xr:uid="{4AB2A12E-9537-49F3-82E0-42DB76C5A4CE}"/>
@@ -22874,17 +22994,19 @@
     <hyperlink ref="C157" r:id="rId41" display="https://info.astahealthcare.com/personnel" xr:uid="{C1B25D9C-9C33-4170-8FEF-C25538E337C5}"/>
     <hyperlink ref="C158" r:id="rId42" display="https://info.astahealthcare.com/personnel" xr:uid="{07F6DDC1-4287-4FF3-99A9-CB263A0B79D8}"/>
     <hyperlink ref="C159" r:id="rId43" display="https://info.astahealthcare.com/personnel" xr:uid="{D3488C42-6CC7-4D03-98DD-C1A7EC6DFA7C}"/>
+    <hyperlink ref="C154" r:id="rId44" display="https://portal.astahealthcare.com/personnel" xr:uid="{E0371824-72AE-45A7-AABF-933F8F9ED535}"/>
+    <hyperlink ref="C163" r:id="rId45" display="https://portal.astahealthcare.com/personnel" xr:uid="{F394FDDB-62F5-48F9-A9CF-5025731C9B7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId44"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId46"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="170" max="33" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="33" max="66" man="1"/>
   </colBreaks>
-  <legacyDrawing r:id="rId45"/>
+  <legacyDrawing r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -22973,24 +23095,24 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:33" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="222" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="231"/>
-      <c r="L5" s="231"/>
-      <c r="M5" s="231"/>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
-      <c r="P5" s="231"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
@@ -23005,24 +23127,24 @@
       <c r="AG5" s="8"/>
     </row>
     <row r="6" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="196" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
       <c r="Q6" s="77"/>
       <c r="R6" s="77"/>
       <c r="S6" s="77"/>
@@ -23107,43 +23229,43 @@
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="221" t="s">
+      <c r="C8" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="222" t="s">
+      <c r="E8" s="224" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
       <c r="I8" s="79"/>
-      <c r="J8" s="232" t="s">
+      <c r="J8" s="225" t="s">
         <v>266</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="223" t="s">
+      <c r="K8" s="226"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="228" t="s">
         <v>455</v>
       </c>
-      <c r="N8" s="221" t="s">
+      <c r="N8" s="223" t="s">
         <v>423</v>
       </c>
-      <c r="O8" s="221" t="s">
+      <c r="O8" s="223" t="s">
         <v>424</v>
       </c>
-      <c r="P8" s="223" t="s">
+      <c r="P8" s="228" t="s">
         <v>456</v>
       </c>
-      <c r="Q8" s="225"/>
+      <c r="Q8" s="230"/>
       <c r="R8" s="80"/>
       <c r="S8"/>
       <c r="T8" s="4"/>
@@ -23153,10 +23275,10 @@
       <c r="AF8" s="64"/>
     </row>
     <row r="9" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="222"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
       <c r="E9" s="82" t="s">
         <v>267</v>
       </c>
@@ -23181,11 +23303,11 @@
       <c r="L9" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="M9" s="224"/>
-      <c r="N9" s="222"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="225"/>
+      <c r="M9" s="229"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="229"/>
+      <c r="Q9" s="230"/>
       <c r="R9" s="80"/>
       <c r="S9"/>
       <c r="T9" s="4"/>
@@ -30307,11 +30429,11 @@
       <c r="U124" s="92"/>
     </row>
     <row r="125" spans="1:29" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="226" t="s">
+      <c r="A125" s="231" t="s">
         <v>250</v>
       </c>
-      <c r="B125" s="227"/>
-      <c r="C125" s="228"/>
+      <c r="B125" s="232"/>
+      <c r="C125" s="233"/>
       <c r="D125" s="102">
         <f>+SUBTOTAL(9,D10:D124)</f>
         <v>469000000</v>
@@ -30395,16 +30517,16 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="107"/>
-      <c r="B127" s="229" t="s">
+      <c r="B127" s="234" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="229"/>
+      <c r="C127" s="234"/>
       <c r="D127" s="108"/>
       <c r="E127" s="108"/>
-      <c r="F127" s="230" t="s">
+      <c r="F127" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="G127" s="230"/>
+      <c r="G127" s="235"/>
       <c r="H127" s="109"/>
       <c r="K127" s="109"/>
       <c r="L127" s="209" t="s">
@@ -30426,22 +30548,22 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
-      <c r="B128" s="194" t="s">
+      <c r="B128" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="C128" s="194"/>
+      <c r="C128" s="215"/>
       <c r="D128" s="72"/>
       <c r="E128" s="72"/>
-      <c r="F128" s="194" t="s">
+      <c r="F128" s="215" t="s">
         <v>279</v>
       </c>
-      <c r="G128" s="194"/>
+      <c r="G128" s="215"/>
       <c r="H128" s="72"/>
       <c r="K128" s="72"/>
-      <c r="L128" s="194" t="s">
+      <c r="L128" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="M128" s="194"/>
+      <c r="M128" s="215"/>
       <c r="N128" s="71"/>
       <c r="O128" s="71"/>
       <c r="P128" s="71"/>
@@ -30746,6 +30868,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="L127:M127"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A8:A9"/>
@@ -30756,16 +30888,6 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.2" top="0.51" bottom="0.4" header="0.48" footer="0.39"/>
   <pageSetup scale="62" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -30801,93 +30923,93 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="266" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="237"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="268"/>
       <c r="H2" s="111">
         <v>45534</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="269" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="271"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="241" t="str">
+      <c r="A4" s="272" t="str">
         <f>"PHIẾU LƯƠNG "&amp;MONTH($H$1)&amp;"/"&amp;YEAR($H$1)</f>
         <v>PHIẾU LƯƠNG 8/2024</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="243"/>
+      <c r="B4" s="273"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="274"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="244" t="str">
+      <c r="A5" s="275" t="str">
         <f>"Ngày lập: Ngày "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)&amp;"                                                     Ngày thanh toán: "&amp;DAY($H$2)&amp;" tháng "&amp;MONTH($H$2)&amp;" năm "&amp;YEAR($H$2)</f>
         <v>Ngày lập: Ngày 30 tháng 8 năm 2024                                                     Ngày thanh toán: 30 tháng 8 năm 2024</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="246"/>
+      <c r="B5" s="276"/>
+      <c r="C5" s="276"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="276"/>
+      <c r="F5" s="277"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="247" t="s">
+      <c r="A6" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="248"/>
+      <c r="B6" s="279"/>
       <c r="C6" s="150"/>
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="280" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="250"/>
+      <c r="E6" s="281"/>
       <c r="F6" s="145">
         <f>VLOOKUP($C$7,'BẢNG LƯƠNG T08.2024'!$B$13:$AG$166,6,0)</f>
         <v>3900000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="262" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="252"/>
+      <c r="B7" s="288"/>
       <c r="C7" s="152" t="str">
         <f>'BẢNG LƯƠNG T08.2024'!B71</f>
         <v>Bùi Ngọc Sang</v>
       </c>
-      <c r="D7" s="253" t="s">
+      <c r="D7" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="254"/>
+      <c r="E7" s="265"/>
       <c r="F7" s="147">
         <f>VLOOKUP($C$7,'BẢNG LƯƠNG T08.2024'!$B$13:$AG$166,16,0)</f>
         <v>900000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="253" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="256"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="151"/>
-      <c r="D8" s="257" t="s">
+      <c r="D8" s="255" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="258"/>
+      <c r="E8" s="256"/>
       <c r="F8" s="115" t="str">
         <f>VLOOKUP($C$7,'BẢNG LƯƠNG T08.2024'!$B$13:$AG$166,4,0)</f>
         <v>HĐ 1 năm</v>
@@ -31055,10 +31177,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="263" t="s">
+      <c r="A17" s="291" t="s">
         <v>430</v>
       </c>
-      <c r="B17" s="263"/>
+      <c r="B17" s="291"/>
       <c r="C17" s="185">
         <f>C10+C11+C15</f>
         <v>1000024</v>
@@ -31068,75 +31190,75 @@
       <c r="F17" s="122"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="259" t="s">
+      <c r="A18" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="260"/>
+      <c r="B18" s="290"/>
       <c r="C18" s="184">
         <f>VLOOKUP($C$7,'BẢNG LƯƠNG T08.2024'!$B$13:$AG$166,18,0)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="261" t="s">
+      <c r="D18" s="257" t="s">
         <v>306</v>
       </c>
-      <c r="E18" s="262"/>
+      <c r="E18" s="258"/>
       <c r="F18" s="129">
         <f>F10+F14+F15+F16+F17</f>
         <v>448500</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="264" t="s">
+      <c r="A19" s="259" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="265"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="267">
+      <c r="B19" s="260"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="282">
         <f>VLOOKUP($C$7,'BẢNG LƯƠNG T08.2024'!$B$13:$AG$166,29,0)</f>
         <v>39000</v>
       </c>
-      <c r="E19" s="268"/>
-      <c r="F19" s="269"/>
+      <c r="E19" s="283"/>
+      <c r="F19" s="284"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="270" t="s">
+      <c r="A20" s="238" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="271"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="267">
+      <c r="B20" s="239"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="282">
         <f>VLOOKUP($C$7,'BẢNG LƯƠNG T08.2024'!$B$13:$AG$166,30,0)</f>
         <v>3659833</v>
       </c>
-      <c r="E20" s="268"/>
-      <c r="F20" s="269"/>
+      <c r="E20" s="283"/>
+      <c r="F20" s="284"/>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="273" t="s">
+      <c r="A21" s="285" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="274"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276" t="e">
+      <c r="B21" s="286"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="247" t="e">
         <f ca="1">[2]!vnd(D20)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E21" s="277"/>
-      <c r="F21" s="278"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="249"/>
       <c r="J21" s="149"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="270" t="s">
+      <c r="A22" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="271"/>
-      <c r="C22" s="272"/>
-      <c r="D22" s="280">
+      <c r="B22" s="239"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="250">
         <f>+D19-D20</f>
         <v>-3620833</v>
       </c>
-      <c r="E22" s="281"/>
-      <c r="F22" s="282"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="252"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="130"/>
@@ -31147,16 +31269,16 @@
       <c r="F23" s="130"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="283" t="s">
+      <c r="A24" s="236" t="s">
         <v>311</v>
       </c>
-      <c r="B24" s="283"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="131"/>
       <c r="D24" s="131"/>
-      <c r="E24" s="283" t="s">
+      <c r="E24" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="283"/>
+      <c r="F24" s="236"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="130"/>
@@ -31165,10 +31287,10 @@
       </c>
       <c r="C25" s="130"/>
       <c r="D25" s="130"/>
-      <c r="E25" s="284" t="s">
+      <c r="E25" s="237" t="s">
         <v>313</v>
       </c>
-      <c r="F25" s="284"/>
+      <c r="F25" s="237"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="132"/>
@@ -31181,93 +31303,93 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="235" t="s">
+      <c r="A31" s="266" t="s">
         <v>316</v>
       </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="236"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="237"/>
+      <c r="B31" s="267"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="268"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="238" t="s">
+      <c r="A32" s="269" t="s">
         <v>284</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="240"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="271"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="241" t="str">
+      <c r="A33" s="272" t="str">
         <f>"PHIẾU LƯƠNG "&amp;MONTH($H$1)&amp;"/"&amp;YEAR($H$1)</f>
         <v>PHIẾU LƯƠNG 8/2024</v>
       </c>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="243"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="274"/>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="244" t="str">
+      <c r="A34" s="275" t="str">
         <f>+A5</f>
         <v>Ngày lập: Ngày 30 tháng 8 năm 2024                                                     Ngày thanh toán: 30 tháng 8 năm 2024</v>
       </c>
-      <c r="B34" s="245"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="246"/>
+      <c r="B34" s="276"/>
+      <c r="C34" s="276"/>
+      <c r="D34" s="276"/>
+      <c r="E34" s="276"/>
+      <c r="F34" s="277"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="247" t="s">
+      <c r="A35" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="248"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="112"/>
-      <c r="D35" s="249" t="s">
+      <c r="D35" s="280" t="s">
         <v>286</v>
       </c>
-      <c r="E35" s="250"/>
+      <c r="E35" s="281"/>
       <c r="F35" s="153">
         <f>F6</f>
         <v>3900000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="251" t="s">
+      <c r="A36" s="262" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="279"/>
+      <c r="B36" s="263"/>
       <c r="C36" s="134" t="str">
         <f>C7</f>
         <v>Bùi Ngọc Sang</v>
       </c>
-      <c r="D36" s="253" t="s">
+      <c r="D36" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="254"/>
+      <c r="E36" s="265"/>
       <c r="F36" s="135">
         <f>F7</f>
         <v>900000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="255" t="s">
+      <c r="A37" s="253" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="256"/>
+      <c r="B37" s="254"/>
       <c r="C37" s="114">
         <f>+C8</f>
         <v>0</v>
       </c>
-      <c r="D37" s="257" t="s">
+      <c r="D37" s="255" t="s">
         <v>290</v>
       </c>
-      <c r="E37" s="258"/>
+      <c r="E37" s="256"/>
       <c r="F37" s="127" t="str">
         <f>F8</f>
         <v>HĐ 1 năm</v>
@@ -31452,74 +31574,74 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="261" t="s">
+      <c r="A47" s="257" t="s">
         <v>306</v>
       </c>
-      <c r="B47" s="262"/>
+      <c r="B47" s="258"/>
       <c r="C47" s="128">
         <f>C18</f>
         <v>0</v>
       </c>
-      <c r="D47" s="261" t="s">
+      <c r="D47" s="257" t="s">
         <v>306</v>
       </c>
-      <c r="E47" s="262"/>
+      <c r="E47" s="258"/>
       <c r="F47" s="129">
         <f>F18</f>
         <v>448500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="264" t="s">
+      <c r="A48" s="259" t="s">
         <v>307</v>
       </c>
-      <c r="B48" s="265"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="280">
+      <c r="B48" s="260"/>
+      <c r="C48" s="261"/>
+      <c r="D48" s="250">
         <f>D19</f>
         <v>39000</v>
       </c>
-      <c r="E48" s="281"/>
-      <c r="F48" s="282"/>
+      <c r="E48" s="251"/>
+      <c r="F48" s="252"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="270" t="s">
+      <c r="A49" s="238" t="s">
         <v>308</v>
       </c>
-      <c r="B49" s="271"/>
-      <c r="C49" s="272"/>
-      <c r="D49" s="285">
+      <c r="B49" s="239"/>
+      <c r="C49" s="240"/>
+      <c r="D49" s="241">
         <f>+D20</f>
         <v>3659833</v>
       </c>
-      <c r="E49" s="286"/>
-      <c r="F49" s="287"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="243"/>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="288" t="s">
+      <c r="A50" s="244" t="s">
         <v>309</v>
       </c>
-      <c r="B50" s="289"/>
-      <c r="C50" s="290"/>
-      <c r="D50" s="276" t="e">
+      <c r="B50" s="245"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="247" t="e">
         <f ca="1">D21</f>
         <v>#NAME?</v>
       </c>
-      <c r="E50" s="277"/>
-      <c r="F50" s="278"/>
+      <c r="E50" s="248"/>
+      <c r="F50" s="249"/>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="270" t="s">
+      <c r="A51" s="238" t="s">
         <v>310</v>
       </c>
-      <c r="B51" s="271"/>
-      <c r="C51" s="272"/>
-      <c r="D51" s="280">
+      <c r="B51" s="239"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="250">
         <f>+D22</f>
         <v>-3620833</v>
       </c>
-      <c r="E51" s="281"/>
-      <c r="F51" s="282"/>
+      <c r="E51" s="251"/>
+      <c r="F51" s="252"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="130"/>
@@ -31530,16 +31652,16 @@
       <c r="F52" s="130"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="283" t="s">
+      <c r="A53" s="236" t="s">
         <v>311</v>
       </c>
-      <c r="B53" s="283"/>
+      <c r="B53" s="236"/>
       <c r="C53" s="131"/>
       <c r="D53" s="131"/>
-      <c r="E53" s="283" t="s">
+      <c r="E53" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="F53" s="283"/>
+      <c r="F53" s="236"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="130"/>
@@ -31548,28 +31670,32 @@
       </c>
       <c r="C54" s="130"/>
       <c r="D54" s="130"/>
-      <c r="E54" s="284" t="s">
+      <c r="E54" s="237" t="s">
         <v>313</v>
       </c>
-      <c r="F54" s="284"/>
+      <c r="F54" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="A22:C22"/>
@@ -31583,25 +31709,21 @@
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -31612,8 +31734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BB143-A174-46D2-B887-1865A00BA4A6}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31705,16 +31827,16 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="215" t="s">
+      <c r="O5" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -31741,16 +31863,16 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="216" t="s">
+      <c r="O6" s="196" t="s">
         <v>454</v>
       </c>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
-      <c r="S6" s="216"/>
-      <c r="T6" s="216"/>
-      <c r="U6" s="216"/>
-      <c r="V6" s="216"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
@@ -31772,8 +31894,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="12"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -31895,65 +32017,65 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="292" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="218" t="s">
+      <c r="G9" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="218" t="s">
+      <c r="H9" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="204" t="s">
+      <c r="I9" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="199" t="s">
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="Q9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="R9" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="219" t="s">
+      <c r="S9" s="204" t="s">
         <v>260</v>
       </c>
-      <c r="T9" s="205" t="s">
+      <c r="T9" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="202" t="s">
+      <c r="U9" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="203"/>
-      <c r="W9" s="199" t="s">
+      <c r="V9" s="220"/>
+      <c r="W9" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="204" t="s">
+      <c r="X9" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="199" t="s">
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="200" t="s">
         <v>21</v>
       </c>
       <c r="AC9" s="212" t="s">
@@ -31962,16 +32084,16 @@
       <c r="AD9" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="AE9" s="195" t="s">
+      <c r="AE9" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="197" t="s">
+      <c r="AF9" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="AG9" s="199" t="s">
+      <c r="AG9" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="201" t="s">
+      <c r="AH9" s="218" t="s">
         <v>27</v>
       </c>
       <c r="AI9" s="210" t="s">
@@ -31982,13 +32104,13 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="195"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
       <c r="I10" s="16" t="s">
         <v>30</v>
       </c>
@@ -32010,18 +32132,18 @@
       <c r="O10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="205"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="221"/>
       <c r="U10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="V10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="196"/>
+      <c r="W10" s="202"/>
       <c r="X10" s="18" t="s">
         <v>37</v>
       </c>
@@ -32034,13 +32156,13 @@
       <c r="AA10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="196"/>
+      <c r="AB10" s="202"/>
       <c r="AC10" s="213"/>
       <c r="AD10" s="214"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="198"/>
-      <c r="AG10" s="200"/>
-      <c r="AH10" s="201"/>
+      <c r="AE10" s="202"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="218"/>
       <c r="AI10" s="211"/>
       <c r="AJ10" s="206"/>
     </row>
@@ -32738,29 +32860,29 @@
       <c r="AJ19" s="69"/>
     </row>
     <row r="20" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="194" t="s">
+      <c r="F20" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="215"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="72"/>
       <c r="R20" s="64"/>
-      <c r="U20" s="194" t="s">
+      <c r="U20" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="V20" s="194"/>
-      <c r="W20" s="194"/>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
       <c r="AA20" s="64"/>
       <c r="AC20" s="61"/>
       <c r="AD20" s="61"/>
-      <c r="AE20" s="194" t="s">
+      <c r="AE20" s="215" t="s">
         <v>254</v>
       </c>
-      <c r="AF20" s="194"/>
-      <c r="AG20" s="194"/>
-      <c r="AH20" s="194"/>
+      <c r="AF20" s="215"/>
+      <c r="AG20" s="215"/>
+      <c r="AH20" s="215"/>
     </row>
     <row r="21" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="71"/>
@@ -32953,6 +33075,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="U19:W19"/>
@@ -32969,24 +33109,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:AA9"/>
     <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
